--- a/Tables_Figures/output/table04_SR_association_proportions.xlsx
+++ b/Tables_Figures/output/table04_SR_association_proportions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Local.Noun.Number</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>Unrelated</t>
-  </si>
-  <si>
-    <t>pval</t>
   </si>
   <si>
     <t>1</t>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>7.97772e-13 ***</t>
   </si>
 </sst>
 </file>
@@ -136,76 +130,61 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Tables_Figures/output/table04_SR_association_proportions.xlsx
+++ b/Tables_Figures/output/table04_SR_association_proportions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Local.Noun.Number</t>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t>Unrelated</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Singular</t>
@@ -120,14 +108,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -141,9 +128,6 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -154,9 +138,6 @@
       </c>
       <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -169,9 +150,6 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -183,9 +161,6 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
